--- a/data/income_statement/2digits/size/10_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/10_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>10-Manufacture of food products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>10-Manufacture of food products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>16537986.64875</v>
+        <v>16827357.09658</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>17939116.64713</v>
+        <v>18092182.55488</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>20884295.18013</v>
+        <v>21114207.63351</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>21727876.99432001</v>
+        <v>21816433.18539</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>27494588.5381</v>
+        <v>27766466.16778</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31911965.48331</v>
+        <v>32564444.23008</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>33010115.17906</v>
+        <v>34654136.87672</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>33053764.8897</v>
+        <v>34854472.04875</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>37742188.37105</v>
+        <v>38553996.75237</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>64807926.58604</v>
+        <v>69503626.94798999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>74825407.61377999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>75993180.29821001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>86884381.448</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>13932884.50758</v>
+        <v>14149024.27254</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>15338824.13085</v>
+        <v>15396306.011</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>17892444.63357</v>
+        <v>18030318.49635</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18564618.45393</v>
+        <v>18563670.59476</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23090908.26376</v>
+        <v>23265395.63081</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>26911199.14272</v>
+        <v>27414200.43459</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>28692332.72387</v>
+        <v>29835250.47317</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>28422120.69293</v>
+        <v>29730502.59796</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>32399678.10803</v>
+        <v>32871650.15307</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>51917516.97323</v>
+        <v>56592989.37909999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>61331794.60727001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>61618019.01869</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>71425156.965</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2438443.05431</v>
+        <v>2511748.74003</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2437836.45256</v>
+        <v>2530988.23537</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2784662.23562</v>
+        <v>2872108.21158</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2957958.981790001</v>
+        <v>3051093.35194</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4151204.3887</v>
+        <v>4254673.74598</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4746739.03598</v>
+        <v>4880448.07274</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4037621.53625</v>
+        <v>4520872.17265</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4292302.26375</v>
+        <v>4745319.58167</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4989517.4181</v>
+        <v>5313316.9947</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12240919.42346</v>
+        <v>12306509.78988</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>12740132.78829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13628389.69188</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14602444.33</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>166659.08686</v>
+        <v>166584.08401</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>162456.06372</v>
+        <v>164888.30851</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>207188.31094</v>
+        <v>211780.92558</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>205299.5586</v>
+        <v>201669.23869</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>252475.88564</v>
+        <v>246396.79099</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>254027.30461</v>
+        <v>269795.72275</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>280160.91894</v>
+        <v>298014.2309</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>339341.9330200001</v>
+        <v>378649.86912</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>352992.8449199999</v>
+        <v>369029.6046</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>649490.1893499999</v>
+        <v>604127.7790099999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>753480.21822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>746771.58764</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>856780.153</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>377513.01578</v>
+        <v>393677.90867</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>379175.29015</v>
+        <v>417683.41776</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>392769.64675</v>
+        <v>435533.1319099999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>467282.06976</v>
+        <v>485396.73061</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>595781.31086</v>
+        <v>656701.8343000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>615553.2019600001</v>
+        <v>692832.52322</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>594355.5612</v>
+        <v>680415.2102000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>980872.5276499999</v>
+        <v>1085534.40703</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>723066.6504200001</v>
+        <v>741915.4601700001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1667691.0134</v>
+        <v>6245029.41287</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1901412.85474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1951072.52319</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2001596.35</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>160920.1976</v>
+        <v>164319.71296</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>163107.03189</v>
+        <v>183112.41583</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>194646.86103</v>
+        <v>205871.21639</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>228725.95594</v>
+        <v>235950.9093</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>285533.9301400001</v>
+        <v>308853.85049</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>349861.8160999999</v>
+        <v>374362.21131</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>340341.96302</v>
+        <v>376495.8058</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>697203.5942800001</v>
+        <v>741361.3253100001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>437087.2317</v>
+        <v>440789.46939</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>759712.63622</v>
+        <v>5301450.76847</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>980916.0197899999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>982086.77201</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1036918.092</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>181719.00277</v>
+        <v>191751.5461</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>189180.64305</v>
+        <v>202224.97929</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>169602.49566</v>
+        <v>187835.01588</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>187142.4846</v>
+        <v>195077.49134</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>266491.83521</v>
+        <v>302583.72498</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>222605.98469</v>
+        <v>272563.62015</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>216048.29572</v>
+        <v>263816.40659</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>242905.74552</v>
+        <v>297507.44936</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>232773.8932</v>
+        <v>248542.41625</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>745542.55267</v>
+        <v>780382.29249</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>781515.63004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>828858.47869</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>814437.526</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>34873.81541</v>
+        <v>37606.64961</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>26887.61521</v>
+        <v>32346.02264</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>28520.29006</v>
+        <v>41826.89964</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>51413.62922</v>
+        <v>54368.32997</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>43755.54551</v>
+        <v>45264.25883</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>43085.40117</v>
+        <v>45906.69176</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>37965.30245999999</v>
+        <v>40102.99781</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>40763.18784999999</v>
+        <v>46665.63236</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>53205.52552</v>
+        <v>52583.57453</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>162435.82451</v>
+        <v>163196.35191</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>138981.20491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>140127.27249</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>150240.732</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>16160473.63297</v>
+        <v>16433679.18791</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>17559941.35698</v>
+        <v>17674499.13712</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>20491525.53338</v>
+        <v>20678674.5016</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>21260594.92456</v>
+        <v>21331036.45478</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>26898807.22724</v>
+        <v>27109764.33348</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>31296412.28135</v>
+        <v>31871611.70686</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>32415759.61786</v>
+        <v>33973721.66652</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>32072892.36205</v>
+        <v>33768937.64172</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>37019121.72063</v>
+        <v>37812081.2922</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>63140235.57264</v>
+        <v>63258597.53512</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>72923994.75904001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>74042107.77502</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>84882785.098</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>14362470.38067</v>
+        <v>14608388.72789</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>15764437.25036</v>
+        <v>15865340.99751</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>18363154.68605</v>
+        <v>18545280.9935</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>19014570.66283</v>
+        <v>19073753.55307</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>24014780.7801</v>
+        <v>24182532.22672</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>28067486.73198</v>
+        <v>28586957.63224</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>29070301.37694</v>
+        <v>30390902.0023</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>28552006.67344</v>
+        <v>30000121.20888</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>32892846.51968</v>
+        <v>33601211.14566</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>55527036.43228</v>
+        <v>55555222.91798001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>64502474.73818001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>65321815.98538</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>75805995.93799999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>11871980.98233</v>
+        <v>12108399.83704</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>12914177.93081</v>
+        <v>13010019.39703</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>14542388.43724</v>
+        <v>14709473.33644</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>14965347.26564</v>
+        <v>15047186.21031</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>19303802.48798</v>
+        <v>19492477.00276</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>22210447.16668</v>
+        <v>22675134.2313</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>22983736.80122</v>
+        <v>24165617.16441</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>22443509.744</v>
+        <v>23723427.59956</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>25713495.03692999</v>
+        <v>26403761.25703</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>44882351.73185</v>
+        <v>44925279.09152</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>50906408.38746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>52356985.2824</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>59984692.563</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2189559.03208</v>
+        <v>2204940.62734</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2523208.44792</v>
+        <v>2531394.49046</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3435500.707400001</v>
+        <v>3442024.33841</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3649291.4573</v>
+        <v>3624769.77736</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4256404.88091</v>
+        <v>4243178.01865</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5272432.097789999</v>
+        <v>5295529.81476</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5439484.343610001</v>
+        <v>5536127.699360001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5499233.96983</v>
+        <v>5592788.197990001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6324146.93616</v>
+        <v>6236989.76232</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9339730.401559999</v>
+        <v>9212969.574999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11801557.90844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11476364.57147</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>14374301.339</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>157024.68065</v>
+        <v>153055.3963</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>145657.79478</v>
+        <v>141084.85003</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>195785.5805</v>
+        <v>196440.01048</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>213048.06225</v>
+        <v>210813.98575</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>212182.39298</v>
+        <v>212203.97364</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>263707.37584</v>
+        <v>281828.79438</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>379000.90078</v>
+        <v>392630.73482</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>317038.72855</v>
+        <v>358897.8135</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>537386.8845599999</v>
+        <v>608145.5807200001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>677497.12624</v>
+        <v>715778.74616</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>988992.77376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>667147.73487</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>704156.969</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>143905.68561</v>
+        <v>141992.86721</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>181393.07685</v>
+        <v>182842.25999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>189479.96091</v>
+        <v>197343.30817</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>186883.87764</v>
+        <v>190983.57965</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>242391.01823</v>
+        <v>234673.23167</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>320900.09167</v>
+        <v>334464.7917999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>268079.33133</v>
+        <v>296526.40371</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>292224.23106</v>
+        <v>325007.59783</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>317817.6620299999</v>
+        <v>352314.5455900001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>627457.17263</v>
+        <v>701195.5053000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>805515.6685200001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>821318.3966399999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>742845.067</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1798003.2523</v>
+        <v>1825290.46002</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1795504.10662</v>
+        <v>1809158.13961</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2128370.84733</v>
+        <v>2133393.5081</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2246024.26173</v>
+        <v>2257282.90171</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2884026.44714</v>
+        <v>2927232.10676</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3228925.54937</v>
+        <v>3284654.07462</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3345458.24092</v>
+        <v>3582819.66422</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3520885.68861</v>
+        <v>3768816.43284</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4126275.20095</v>
+        <v>4210870.14654</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7613199.140360001</v>
+        <v>7703374.61714</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8421520.02086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8720291.78964</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9076789.16</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1221600.99974</v>
+        <v>1248322.64687</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1297469.12828</v>
+        <v>1334509.93191</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1493634.78202</v>
+        <v>1490652.35266</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1663272.04536</v>
+        <v>1659052.27005</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2030626.5937</v>
+        <v>2042831.99989</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2150305.3028</v>
+        <v>2210223.45219</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2242017.00908</v>
+        <v>2383459.88572</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2399681.50295</v>
+        <v>2537180.04068</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2695550.67669</v>
+        <v>2714547.31251</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4416837.400529999</v>
+        <v>4563152.9965</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4957780.91084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5041203.464089999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5198396.676</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5266.36367</v>
+        <v>5378.59231</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>8888.76512</v>
+        <v>9048.73594</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>9269.10023</v>
+        <v>7041.805550000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7686.30566</v>
+        <v>7852.67325</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>9295.11501</v>
+        <v>9525.01679</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>9746.687449999999</v>
+        <v>11835.96733</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>11262.21959</v>
+        <v>15726.11834</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>11399.34126</v>
+        <v>14944.59888</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>11549.44181</v>
+        <v>12552.45124</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>20644.70815</v>
+        <v>21449.80309</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>33085.94008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>38968.96133000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>22958.556</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>701983.42206</v>
+        <v>722061.60878</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>726531.9049499999</v>
+        <v>770306.4254300001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>817260.3488799999</v>
+        <v>825090.62801</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>913773.3380699999</v>
+        <v>916358.45649</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1143785.14551</v>
+        <v>1177860.28793</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1184292.58823</v>
+        <v>1252863.02336</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1201724.17997</v>
+        <v>1316121.39942</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1300278.91204</v>
+        <v>1402691.79875</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1446234.06498</v>
+        <v>1472758.50914</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2657533.38095</v>
+        <v>2697336.19784</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2853944.36551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2961054.422569999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3028539.613</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>514351.21401</v>
+        <v>520882.44578</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>562048.45821</v>
+        <v>555154.7705399999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>667105.33291</v>
+        <v>658519.9191000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>741812.40163</v>
+        <v>734841.14031</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>877546.3331800001</v>
+        <v>855446.69517</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>956266.02712</v>
+        <v>945524.4615000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1029030.60952</v>
+        <v>1051612.36796</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1088003.24965</v>
+        <v>1119543.64305</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1237767.1699</v>
+        <v>1229236.35213</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1738659.31143</v>
+        <v>1844366.99557</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2070750.60525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2041180.08019</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2146898.507</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>576402.2525599999</v>
+        <v>576967.8131500001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>498034.97834</v>
+        <v>474648.2077</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>634736.06531</v>
+        <v>642741.15544</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>582752.21637</v>
+        <v>598230.63166</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>853399.85344</v>
+        <v>884400.1068699999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1078620.24657</v>
+        <v>1074430.62243</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1103441.23184</v>
+        <v>1199359.7785</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1121204.18566</v>
+        <v>1231636.39216</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1430724.52426</v>
+        <v>1496322.83403</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3196361.73983</v>
+        <v>3140221.62064</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3463739.11002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3679088.32555</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3878392.484</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>275787.95376</v>
+        <v>301458.32122</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>223639.25599</v>
+        <v>244858.01286</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>225944.4333</v>
+        <v>264801.95456</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>241108.74887</v>
+        <v>238563.35992</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>352058.67549</v>
+        <v>328540.13169</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>344832.29953</v>
+        <v>392363.40629</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>481814.8414</v>
+        <v>558094.17028</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>471458.77289</v>
+        <v>621786.35728</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>569861.21472</v>
+        <v>692530.5832</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2490357.066559999</v>
+        <v>2425418.38669</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1377115.01917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1576830.98548</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2235810.502</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3965.49863</v>
+        <v>1597.78606</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3645.99529</v>
+        <v>1444.97466</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1148.53965</v>
+        <v>611.3898900000002</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1071.41633</v>
+        <v>425.715</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>12653.51108</v>
+        <v>383.09455</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2337.73494</v>
+        <v>1150.31094</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3265.0046</v>
+        <v>7092.06372</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2071.10118</v>
+        <v>84314.77125000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3628.38646</v>
+        <v>12945.24294</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4567.62004</v>
+        <v>3927.02995</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4910.40277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9540.759950000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>14098.946</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1503.84</v>
@@ -1817,7 +1833,7 @@
         <v>37.13121</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>183.43249</v>
+        <v>182.69221</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>177.72391</v>
@@ -1826,259 +1842,294 @@
         <v>4823.61108</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>534.69254</v>
+        <v>172.70432</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>144.95996</v>
+        <v>1867.29069</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>6637.49133</v>
+        <v>13335.36051</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>50777.69543</v>
+        <v>1099.18194</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>11779.29669</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1610.49147</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>14568.603</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>24636.00079</v>
+        <v>28734.89361</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>21461.72524</v>
+        <v>26569.80485</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>22788.36746</v>
+        <v>26030.52624</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>34378.36576</v>
+        <v>29950.55962</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>31110.22736</v>
+        <v>35384.81369</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>38551.16448000001</v>
+        <v>38798.58797</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>52366.84507</v>
+        <v>57478.13484</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>45876.75359</v>
+        <v>49295.46195999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>70025.50651000001</v>
+        <v>81544.64127000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>152734.52068</v>
+        <v>188136.44724</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>193706.09623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>199845.4212</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>162174.216</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1020.20559</v>
+        <v>1017.60538</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>539.5874399999999</v>
+        <v>538.46344</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1034.0143</v>
+        <v>794.5707599999998</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1675.22602</v>
+        <v>1669.80724</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1432.34174</v>
+        <v>1428.25758</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1217.88763</v>
+        <v>1205.82379</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3106.02879</v>
+        <v>3720.00136</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3039.98306</v>
+        <v>3672.167259999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>782.51221</v>
+        <v>796.4712500000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2318.82492</v>
+        <v>2440.08258</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1769.59477</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1081.25478</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1664.775</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>11181.64083</v>
+        <v>7420.474639999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>7928.9204</v>
+        <v>5955.07097</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>9093.420749999999</v>
+        <v>13507.47254</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6124.589660000001</v>
+        <v>8142.453699999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>17253.54612</v>
+        <v>10550.34221</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9495.88258</v>
+        <v>12846.62863</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7009.84308</v>
+        <v>9686.291509999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12575.46003</v>
+        <v>14574.73326</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>8359.65237</v>
+        <v>8071.33828</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>15829.08712</v>
+        <v>15700.99736</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>27631.87966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>19687.58499</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22108.286</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2372.44264</v>
+        <v>1472.82144</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4766.970770000001</v>
+        <v>4481.92186</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1294.20254</v>
+        <v>1438.18969</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3558.9246</v>
+        <v>8706.603020000002</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4243.31241</v>
+        <v>4108.23599</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>13967.53901</v>
+        <v>13799.80376</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3836.4331</v>
+        <v>3802.616669999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1046.30397</v>
+        <v>10194.5964</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5176.183559999999</v>
+        <v>4807.15318</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>9422.580460000001</v>
+        <v>6530.85985</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>17153.2537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>14575.17539</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>18294.077</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>176132.33682</v>
+        <v>195921.07924</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>128085.95957</v>
+        <v>142280.85241</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>137068.84077</v>
+        <v>165679.48402</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>126694.09984</v>
+        <v>128659.6098</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>201564.87718</v>
+        <v>194564.0276</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>195841.14833</v>
+        <v>235870.96282</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>322298.58845</v>
+        <v>376445.02456</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>303380.9764700001</v>
+        <v>340489.36759</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>352511.7277399999</v>
+        <v>430430.58967</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2032424.96568</v>
+        <v>1991826.25716</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>929387.4575499999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1107857.46606</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1758337.768</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1697.56231</v>
+        <v>2475.87083</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>782.7984</v>
+        <v>1281.33468</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>757.4911900000001</v>
+        <v>652.2747899999999</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2086.61162</v>
+        <v>1898.54189</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>871.9910800000001</v>
+        <v>858.1245799999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1376.3172</v>
+        <v>1488.44074</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1878.03299</v>
+        <v>2173.55446</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>1407.12506</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>780.8075000000001</v>
+        <v>844.4452000000002</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3729.88291</v>
+        <v>3765.96899</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>7276.38466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>5278.86953</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4254.128</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>130.4141</v>
@@ -2090,13 +2141,13 @@
         <v>140.07029</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>1925.25013</v>
+        <v>1820.67976</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>9.290469999999999</v>
+        <v>9.76671</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>758.39897</v>
+        <v>1263.11553</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>73.69538</v>
@@ -2111,295 +2162,335 @@
         <v>31.37182</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>2327.25076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>2301.17845</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>87.639</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>53148.01205</v>
+        <v>61183.53591999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>56111.52149</v>
+        <v>61989.81260000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>52582.35514000001</v>
+        <v>55910.84513</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>63410.83241999999</v>
+        <v>57106.69767999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>82741.85414</v>
+        <v>81075.74487000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>76462.61531000001</v>
+        <v>81116.12102999998</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>87445.67739999999</v>
+        <v>97450.08346000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>101782.70912</v>
+        <v>115837.44336</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>120314.24743</v>
+        <v>138110.64129</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>218520.5175</v>
+        <v>211960.1898</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>181173.40238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>215052.78366</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>240222.064</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>257526.44295</v>
+        <v>280598.28258</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>169512.36099</v>
+        <v>182911.82743</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>220275.91689</v>
+        <v>242666.00647</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>167227.51917</v>
+        <v>158251.10865</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>333281.42488</v>
+        <v>337292.12317</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>344701.93609</v>
+        <v>346480.86155</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>470641.4309100001</v>
+        <v>581447.5544299999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>440283.91311</v>
+        <v>533179.5645200001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>529017.71457</v>
+        <v>659900.4460300001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2772697.97665</v>
+        <v>2595530.88937</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1285229.51187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1434983.9438</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2082554.293</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5028.124890000001</v>
+        <v>4312.4765</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3179.79957</v>
+        <v>4189.74245</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3538.31522</v>
+        <v>3531.40042</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4580.51719</v>
+        <v>4490.90448</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5034.52112</v>
+        <v>4107.68476</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3607.48324</v>
+        <v>3563.2924</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6561.803069999998</v>
+        <v>7480.9045</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7173.576340000001</v>
+        <v>8009.910509999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7943.01722</v>
+        <v>8566.97135</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>37797.03135</v>
+        <v>37244.35968000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>17921.78571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>17715.39263</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>14828.408</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>55519.88718999999</v>
+        <v>55783.31176999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>27021.47622</v>
+        <v>26475.37694</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>20145.15547</v>
+        <v>21223.93533</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>29601.69433</v>
+        <v>29974.65042</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>45289.04448</v>
+        <v>42688.70306</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>49640.73711</v>
+        <v>50313.13618</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>60783.81751</v>
+        <v>78050.80630999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>60352.11317</v>
+        <v>64282.31091000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>53921.53856999999</v>
+        <v>48024.85937999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>105235.34705</v>
+        <v>100758.58622</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>121614.79959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>114343.28235</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>122504.724</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>882.9614600000001</v>
+        <v>872.27147</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>493.07412</v>
+        <v>375.29024</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>507.96594</v>
+        <v>1234.07247</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>847.77989</v>
+        <v>2203.67844</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1468.33773</v>
+        <v>1332.86447</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>33880.8989</v>
+        <v>258.44134</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>867.80322</v>
+        <v>867.8032200000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>792.63724</v>
+        <v>787.12122</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>108.04866</v>
+        <v>96.27914000000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>6242.901970000001</v>
+        <v>2914.64307</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2949.01212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1635.57532</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>8454.280000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>170359.38401</v>
+        <v>186116.76356</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>111928.34978</v>
+        <v>126212.1117</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>169262.79619</v>
+        <v>188282.54249</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>101930.42765</v>
+        <v>94292.42425</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>247876.18723</v>
+        <v>251593.43261</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>230517.37052</v>
+        <v>261494.60759</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>365538.98657</v>
+        <v>444234.3428400001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>337077.82054</v>
+        <v>416175.91149</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>409046.21214</v>
+        <v>524509.5914799999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2524672.77836</v>
+        <v>2358568.595</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1060547.04516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1222487.25834</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1851288.362</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1268.33273</v>
+        <v>1345.64955</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1122.97804</v>
+        <v>1300.11934</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>775.07787</v>
+        <v>919.9235</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1844.46672</v>
+        <v>1710.67524</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1201.089</v>
+        <v>1195.47416</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3554.5705</v>
+        <v>3134.7303</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1597.76142</v>
+        <v>1838.87212</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1279.19127</v>
+        <v>1229.34098</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1899.70486</v>
+        <v>1464.99157</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>6527.77655</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>3403.58509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3706.85139</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>7146.671</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>55.73854</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>123.72398</v>
+        <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>678.57525</v>
+        <v>662.45098</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>105.11372</v>
@@ -2408,7 +2499,7 @@
         <v>505.04208</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>63.98871</v>
+        <v>63.98865</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>298.30435</v>
@@ -2417,601 +2508,679 @@
         <v>290.05951</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>148.34737</v>
+        <v>148.34793</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>174.14833</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>100.35104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>31.254</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>24412.01413</v>
+        <v>32112.07119</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>25642.95928</v>
+        <v>24359.18676</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>25368.03095</v>
+        <v>26811.68128</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>28317.51967</v>
+        <v>25473.6621</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>31907.20324</v>
+        <v>35868.92203</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>23436.88711</v>
+        <v>27652.66509</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>34992.95477</v>
+        <v>48676.52108999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>33318.51504</v>
+        <v>42404.9099</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>55950.84575</v>
+        <v>77089.40518</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>92047.99304</v>
+        <v>89516.92885000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>78692.93316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>75095.58377</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>78300.594</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>285801.25468</v>
+        <v>307882.8388499999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>230020.45788</v>
+        <v>241873.45748</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>330073.72211</v>
+        <v>363156.36327</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>377603.17835</v>
+        <v>375487.16702</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>498495.29239</v>
+        <v>499279.83552</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>556343.32545</v>
+        <v>593086.9348200001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>643244.65987</v>
+        <v>723696.60511</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>678830.05644</v>
+        <v>775673.37378</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>782120.00131</v>
+        <v>873983.30961</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1888732.09064</v>
+        <v>2016560.78491</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1792530.13282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1897151.91012</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1628765.077</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>264932.1292199999</v>
+        <v>282640.62984</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>216958.3693</v>
+        <v>228160.5668</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>313379.71289</v>
+        <v>340890.91916</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>359595.25932</v>
+        <v>359328.19079</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>460035.47509</v>
+        <v>452557.67317</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>527936.32651</v>
+        <v>551353.40376</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>605940.90276</v>
+        <v>662726.64781</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>641098.08384</v>
+        <v>737140.5554500001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>729370.23437</v>
+        <v>820317.8411699999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1699819.48725</v>
+        <v>1782806.49424</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1653884.29358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1759736.98</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1497119.418</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>20869.12546</v>
+        <v>25242.20901</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>13062.08858</v>
+        <v>13712.89068</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>16694.00922</v>
+        <v>22265.44411</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>18007.91903</v>
+        <v>16158.97623</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>38459.8173</v>
+        <v>46722.16235000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>28406.99894</v>
+        <v>41733.53106</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>37303.75711</v>
+        <v>60969.95729999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>37731.9726</v>
+        <v>38532.81832999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>52749.76693999999</v>
+        <v>53665.46844</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>188912.60339</v>
+        <v>233754.29067</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>138645.83924</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>137414.93012</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>131645.659</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>308862.50869</v>
+        <v>289945.01294</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>322141.4154599999</v>
+        <v>294720.93565</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>310330.85961</v>
+        <v>301720.74026</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>279030.26772</v>
+        <v>303055.71591</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>373681.8116599999</v>
+        <v>376368.27987</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>522407.28456</v>
+        <v>527226.2323500001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>471369.9824599999</v>
+        <v>452309.78924</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>473548.989</v>
+        <v>544569.81114</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>689448.0230999999</v>
+        <v>654969.66159</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1025288.7391</v>
+        <v>953548.3330499999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1763094.4845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1923783.45711</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2402883.616</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>90769.16721</v>
+        <v>104045.01977</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>96025.29749000001</v>
+        <v>139006.38669</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>90941.7211</v>
+        <v>109927.97367</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>134854.61651</v>
+        <v>129497.46425</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>197258.83619</v>
+        <v>171060.56509</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>169777.63308</v>
+        <v>141358.36158</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>175152.71565</v>
+        <v>182717.07661</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>203335.11354</v>
+        <v>200582.48162</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>293918.84977</v>
+        <v>247448.57266</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>306213.67141</v>
+        <v>473772.10487</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>430454.85158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>351634.7169999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>697974.037</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1623.20039</v>
+        <v>1749.92352</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3563.50489</v>
+        <v>2150.85166</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>890.42602</v>
+        <v>1509.79323</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7206.70833</v>
+        <v>7160.85442</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5859.328680000001</v>
+        <v>1860.29909</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>25100.95266</v>
+        <v>2056.73183</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2018.49105</v>
+        <v>3188.43257</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5638.42861</v>
+        <v>7064.909390000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1988.95127</v>
+        <v>2727.07404</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7568.65292</v>
+        <v>6967.52853</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20776.61239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>18069.6599</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>13831.63</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>89145.96681999999</v>
+        <v>102295.09625</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>92461.79260000002</v>
+        <v>136855.53503</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>90051.29508000001</v>
+        <v>108418.18044</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>127647.90818</v>
+        <v>122336.60983</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>191399.50751</v>
+        <v>169200.266</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>144676.68042</v>
+        <v>139301.62975</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>173134.2246</v>
+        <v>179528.64404</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>197696.68493</v>
+        <v>193517.57223</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>291929.8985</v>
+        <v>244721.49862</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>298645.01849</v>
+        <v>466804.57634</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>409678.23919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>333565.0571</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>684142.407</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>70476.52187000001</v>
+        <v>85151.90757</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>63832.95149</v>
+        <v>74849.02797</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>292190.49592</v>
+        <v>287864.17297</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>116249.76692</v>
+        <v>179794.71151</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>121388.42526</v>
+        <v>115954.31304</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>209313.47704</v>
+        <v>215179.07309</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>122750.89318</v>
+        <v>153852.34309</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>360653.70859</v>
+        <v>388788.60403</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>177796.7058</v>
+        <v>218747.09765</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>468062.71403</v>
+        <v>397869.84476</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>395077.74568</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>361248.47999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>342993.372</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>12927.37187</v>
+        <v>23081.89205</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>13963.84528</v>
+        <v>16365.99915</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>18555.91926</v>
+        <v>21064.4312</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>15624.91871</v>
+        <v>15842.80332</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>16376.97333</v>
+        <v>15252.06374</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>26236.69252</v>
+        <v>30709.20759</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>25584.97217</v>
+        <v>26039.6718</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>23731.01973</v>
+        <v>34165.64172</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>28000.60136</v>
+        <v>35338.88087000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>71608.23309000001</v>
+        <v>75590.07894999998</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>58207.18145999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>59186.71819</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>72985.22500000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>12991.55039</v>
+        <v>13245.56691</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5151.040980000001</v>
+        <v>6671.106299999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7785.786790000001</v>
+        <v>8792.04934</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>8510.169249999999</v>
+        <v>6266.400360000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5948.613770000001</v>
+        <v>5257.093339999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>20815.0629</v>
+        <v>14694.81265</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4241.2652</v>
+        <v>4398.62694</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7788.125099999999</v>
+        <v>10042.42</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>12191.42302</v>
+        <v>33225.43078</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8887.49516</v>
+        <v>11060.95743</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11961.4069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>18570.52999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>27251.648</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>44557.59961</v>
+        <v>48824.44861</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>44718.06523</v>
+        <v>51811.92252</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>265848.78987</v>
+        <v>258007.69243</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>92114.67895999999</v>
+        <v>157685.50783</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>99062.83816000001</v>
+        <v>95445.15595999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>162261.72162</v>
+        <v>169775.05285</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>92924.65580999998</v>
+        <v>123414.04435</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>329134.56376</v>
+        <v>344580.5423099999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>137604.68142</v>
+        <v>150182.786</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>387566.98578</v>
+        <v>311218.80838</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>324909.15732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>283491.23181</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>242756.499</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>329155.15403</v>
+        <v>308838.12514</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>354333.76146</v>
+        <v>358878.29437</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>109082.08479</v>
+        <v>123784.54096</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>297635.1173099999</v>
+        <v>252758.46865</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>449552.22259</v>
+        <v>431474.5319200001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>482871.4406</v>
+        <v>453405.52084</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>523771.80493</v>
+        <v>481174.52276</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>316230.39395</v>
+        <v>356363.68873</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>805570.16707</v>
+        <v>683671.1366</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>863439.69648</v>
+        <v>1029450.59316</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1798471.5904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1914169.69412</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2757864.281</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>72433.18773999999</v>
+        <v>73654.90634999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>79186.31191000002</v>
+        <v>80473.07569</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>85862.15246000001</v>
+        <v>89421.55426999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>83050.09309000001</v>
+        <v>83524.65527000002</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>107132.36307</v>
+        <v>107413.35968</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>125656.13864</v>
+        <v>124296.21841</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>124387.5601</v>
+        <v>126494.98153</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>143122.12409</v>
+        <v>148451.87959</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>159856.98973</v>
+        <v>163183.87995</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>303980.53992</v>
+        <v>326146.76583</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>412220.0678799999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>411398.74346</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>496306.832</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>256721.96629</v>
+        <v>235183.21879</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>275147.44955</v>
+        <v>278405.21868</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>23219.93233</v>
+        <v>34362.98669</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>214585.02422</v>
+        <v>169233.81338</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>342419.85952</v>
+        <v>324061.17224</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>357215.30196</v>
+        <v>329109.30243</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>399384.24483</v>
+        <v>354679.54123</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>173108.26986</v>
+        <v>207911.80914</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>645713.1773400001</v>
+        <v>520487.25665</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>559459.15656</v>
+        <v>703303.82733</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1386251.52252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1502770.95066</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2261557.449</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1127</v>
+        <v>995</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1289</v>
+        <v>1109</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1462</v>
+        <v>1249</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1595</v>
+        <v>1349</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>1197</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>1318</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>1412</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>1407</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>1528</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>1605</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>1658</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>1853</v>
+        <v>1518</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1266</v>
+        <v>1149</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1167</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>